--- a/foreignStudents2.xlsx
+++ b/foreignStudents2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmuedu-my.sharepoint.com/personal/bson3_gmu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalka\Documents\GitHub\textvulture.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB8576B-7CE1-42E5-96C1-34EC8B514534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24AFBB-8EA8-4B95-8AF3-A142340F3F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3495" windowWidth="22650" windowHeight="11145" xr2:uid="{809788C0-4DC5-45C9-AE69-D5276A969793}"/>
+    <workbookView xWindow="18525" yWindow="3255" windowWidth="12810" windowHeight="11205" xr2:uid="{809788C0-4DC5-45C9-AE69-D5276A969793}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>China</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -402,52 +414,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D6A912-8D21-4077-9733-9AE332CF306B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>35840</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>6030</v>
+        <v>67439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3820</v>
+        <v>8608</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2220</v>
+        <v>37940</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>37030</v>
+      <c r="B7">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
